--- a/RUDN/Importance/Varible_muatal_in_Central Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Central Asia.xlsx
@@ -22,12 +22,12 @@
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
@@ -61,22 +61,28 @@
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 50-54, male (% of male population)</t>
@@ -85,36 +91,30 @@
     <t>Female population 25-29</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
@@ -178,6 +178,9 @@
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
@@ -262,24 +262,24 @@
     <t>Male population 30-34</t>
   </si>
   <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>Female population 55-59</t>
   </si>
   <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
@@ -319,15 +319,15 @@
     <t>Male population 75-79</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
@@ -349,18 +349,18 @@
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
@@ -382,12 +382,12 @@
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
@@ -451,36 +451,36 @@
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
@@ -508,12 +508,12 @@
     <t>Male population 40-44</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -547,18 +547,18 @@
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
+    <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
     <t>Male population 15-19</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
@@ -574,30 +574,30 @@
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
@@ -613,130 +613,133 @@
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+    <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
+    <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
     <t>Improved water source, rural (% of rural population with access)</t>
@@ -748,27 +751,24 @@
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
+    <t>Forest area (sq. km)</t>
   </si>
   <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Male population 65-69</t>
   </si>
   <si>
@@ -781,13 +781,31 @@
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+    <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
     <t>CO2 emissions (metric tons per capita)</t>
@@ -796,57 +814,39 @@
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -868,57 +868,57 @@
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
@@ -931,18 +931,18 @@
     <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
@@ -952,6 +952,12 @@
     <t>Number of maternal deaths</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
@@ -961,15 +967,9 @@
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
@@ -979,109 +979,109 @@
     <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Pregnant women receiving prenatal care (%)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
+    <t>Reion_sub_code</t>
   </si>
   <si>
     <t>Region_code</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9232426793588961</v>
+        <v>0.9206805675576542</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8908965102608071</v>
+        <v>0.8923424318412592</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8871804467920563</v>
+        <v>0.8908965102608071</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8469815744814586</v>
+        <v>0.8441915908644069</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7853575661375811</v>
+        <v>0.7840678835978983</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7463214370251583</v>
+        <v>0.745329373533095</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7458962669571312</v>
+        <v>0.7447985322915915</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7447985322915915</v>
+        <v>0.7433452465489676</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7371610289808213</v>
+        <v>0.7346100085726586</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7263000997842615</v>
+        <v>0.72987152835569</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7260431556414475</v>
+        <v>0.7296145842128765</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7260431556414475</v>
+        <v>0.7296145842128765</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7253592577570576</v>
+        <v>0.7286762078444045</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7251171284159759</v>
+        <v>0.727177976595347</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7251047792729759</v>
+        <v>0.7253592577570576</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7236065480239189</v>
+        <v>0.7251171284159759</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7184746081998101</v>
+        <v>0.7201544831561364</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7165830545847078</v>
+        <v>0.7184746081998101</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7068667712570775</v>
+        <v>0.7079874146050011</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7064993193669058</v>
+        <v>0.7052879428340699</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7052879428340699</v>
+        <v>0.703295342685649</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6683793201096884</v>
+        <v>0.6698674153477833</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6547290336414315</v>
+        <v>0.6533554072678052</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6412017279489826</v>
+        <v>0.6426473171922646</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.639216323588258</v>
+        <v>0.6412017279489826</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6371029393571899</v>
+        <v>0.639216323588258</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6366101329600067</v>
+        <v>0.6371029393571899</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6291864390314472</v>
+        <v>0.6366101329600067</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6275631219711364</v>
+        <v>0.6291864390314472</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6273453626510537</v>
+        <v>0.6275631219711364</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6265900481765967</v>
+        <v>0.6273453626510537</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6232267061558219</v>
+        <v>0.6265900481765967</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6209161446810234</v>
+        <v>0.6232267061558219</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6196848103311732</v>
+        <v>0.6209161446810234</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6185445422859246</v>
+        <v>0.6196848103311732</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6180551580124021</v>
+        <v>0.6185445422859246</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6161282696281092</v>
+        <v>0.6180551580124021</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6144879753536161</v>
+        <v>0.6161282696281092</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6131431720039531</v>
+        <v>0.6144879753536161</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6078403276408317</v>
+        <v>0.6131431720039531</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6058932094140039</v>
+        <v>0.6078403276408317</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6015070909017286</v>
+        <v>0.6058932094140039</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6010346144188476</v>
+        <v>0.6015070909017286</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5906138928180864</v>
+        <v>0.594185321389515</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5637627664323941</v>
+        <v>0.5611796396344342</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5611796396344342</v>
+        <v>0.5584139642320882</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.554071633493848</v>
+        <v>0.5545599980020104</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5525758710178834</v>
+        <v>0.554071633493848</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5469899177677333</v>
+        <v>0.5469451967794245</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5469451967794245</v>
+        <v>0.5462135202522052</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.5267002716346978</v>
+        <v>0.5264802965909445</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.5264802965909445</v>
+        <v>0.5255949935372997</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5255949935372997</v>
+        <v>0.5252121763966024</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.5049812320361733</v>
+        <v>0.508898610953552</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.4942120000453893</v>
+        <v>0.4941170381840512</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.4941170381840512</v>
+        <v>0.4938500367090723</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.4914000936371576</v>
+        <v>0.4922278730612626</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.4912990163009088</v>
+        <v>0.4914000936371576</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.4696482604201266</v>
+        <v>0.4700059158022751</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.4685178205641798</v>
+        <v>0.4696482604201266</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.4192102549105781</v>
+        <v>0.4181229022856066</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4181229022856066</v>
+        <v>0.4173323005664911</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.4173323005664911</v>
+        <v>0.4170903019222643</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.4170903019222643</v>
+        <v>0.414693335643423</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.414693335643423</v>
+        <v>0.4121123032304581</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4121123032304581</v>
+        <v>0.4113051279361097</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.4113051279361097</v>
+        <v>0.4092230574951159</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4092230574951159</v>
+        <v>0.4088655142921602</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.4088655142921602</v>
+        <v>0.4082115963613586</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4006723524375939</v>
+        <v>0.4042437810090225</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3850331968996348</v>
+        <v>0.3855158223822599</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.3558206763355201</v>
+        <v>0.3576717192791032</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.3556875922949758</v>
+        <v>0.3558206763355201</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3369233599094255</v>
+        <v>0.3281457228621505</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3334346037653895</v>
+        <v>0.327631848445491</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3279152951575095</v>
+        <v>0.3181043791005784</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3153155063176758</v>
+        <v>0.3170161865897851</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3151281886243873</v>
+        <v>0.3166562758030556</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.3060962681662609</v>
+        <v>0.3053198706507332</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.2989789241980465</v>
+        <v>0.2940115621029156</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.2897433162934593</v>
+        <v>0.2935307928721467</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.2897433162934593</v>
+        <v>0.2911132779395427</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.2886838540966359</v>
+        <v>0.2897433162934593</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.2886838540966359</v>
+        <v>0.2897433162934593</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.2650710168835135</v>
+        <v>0.2646589762931191</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.2636385681298536</v>
+        <v>0.2642781516605015</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.2524627936162904</v>
+        <v>0.2494173764887477</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.2494173764887477</v>
+        <v>0.2475160517132304</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.2475160517132304</v>
+        <v>0.2464608094893062</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.2454784303067394</v>
+        <v>0.2461970160995799</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2442906980167912</v>
+        <v>0.2422090663557601</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.2422090663557601</v>
+        <v>0.2421368647204112</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2421368647204112</v>
+        <v>0.241870926699236</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.2392606738503291</v>
+        <v>0.2401967561762635</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2387504697686964</v>
+        <v>0.2392606738503291</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2380471636031354</v>
+        <v>0.2387504697686964</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2341110163247673</v>
+        <v>0.2372707660876072</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2336284037997576</v>
+        <v>0.2347263105102133</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.22936916765307</v>
+        <v>0.2336284037997576</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2086469256382752</v>
+        <v>0.2089580456758851</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.207172301174245</v>
+        <v>0.2086469256382752</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2034802990216678</v>
+        <v>0.207172301174245</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.1917941514661412</v>
+        <v>0.1868300814292958</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1868300814292958</v>
+        <v>0.1852162451415447</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.182305679816805</v>
+        <v>0.1852162451415447</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.1819934943605197</v>
+        <v>0.1852162451415447</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.1819934943605197</v>
+        <v>0.1852162451415447</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1816762421838398</v>
+        <v>0.1830143895613792</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.1816762421838398</v>
+        <v>0.182305679816805</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1816762421838398</v>
+        <v>0.1819934943605197</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1816762421838398</v>
+        <v>0.1819934943605197</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.1544111452021288</v>
+        <v>0.153763331470639</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.153763331470639</v>
+        <v>0.1510964079536774</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1510964079536774</v>
+        <v>0.142068370217036</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1499233561869711</v>
+        <v>0.1414511611054117</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1379111581477068</v>
+        <v>0.13739087885361</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.13739087885361</v>
+        <v>0.1311586418547928</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1344446036702236</v>
+        <v>0.13083710006272</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1311586418547928</v>
+        <v>0.1298657110518968</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1225855567681517</v>
+        <v>0.1238691757235195</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1156861371282061</v>
+        <v>0.1225855567681517</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.09907493317876903</v>
+        <v>0.1005630284168642</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.08103644100158913</v>
+        <v>0.09038179989364714</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.08055561372767817</v>
+        <v>0.0824619318104669</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.08055561372767817</v>
+        <v>0.0824619318104669</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.07839660322070241</v>
+        <v>0.08103644100158913</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.0611555834180415</v>
+        <v>0.06421397523354933</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.04436969203300012</v>
+        <v>0.05510818040323984</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.04436969203300012</v>
+        <v>0.04607015454296559</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.03721240309384544</v>
+        <v>0.04436969203300012</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.03494922451644022</v>
+        <v>0.04436969203300012</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.02654724134200892</v>
+        <v>0.03911872117663417</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.0249559210671515</v>
+        <v>0.0273194868441522</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.02448711627677347</v>
+        <v>0.02550752444003868</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.02042281877524177</v>
+        <v>0.02007897508765155</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.02042281877524177</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.01827479509870966</v>
+        <v>0.01964642125971383</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.0153276233646118</v>
+        <v>0.01827479509870966</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.01384814305476501</v>
+        <v>0.01575446113755352</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.01370481810779034</v>
+        <v>0.0153276233646118</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.01331168483821821</v>
+        <v>0.01370481810779034</v>
       </c>
     </row>
     <row r="356" spans="1:2">
